--- a/inst/extdata/SplitPlotData.xlsx
+++ b/inst/extdata/SplitPlotData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
@@ -47,9 +47,6 @@
     <t>Paradigm</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>ROC</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>1, 2</t>
+  </si>
+  <si>
+    <t>experimental</t>
   </si>
 </sst>
 </file>
@@ -120,8 +120,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -224,7 +226,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -265,6 +267,7 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -305,6 +308,7 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3770,10 +3774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3781,10 +3785,10 @@
     <col min="1" max="4" width="8.83203125" style="3"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3806,79 +3810,77 @@
       <c r="G1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3892,14 +3894,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3913,14 +3915,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3934,14 +3936,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3955,14 +3957,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3976,14 +3978,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3997,14 +3999,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4018,14 +4020,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4039,14 +4041,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4060,14 +4062,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4081,13 +4083,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4101,13 +4103,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4121,10 +4123,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4141,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4161,10 +4163,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4181,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4201,10 +4203,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4221,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4241,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4261,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4281,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4301,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4321,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4341,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4361,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4381,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4401,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4421,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4441,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4461,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4481,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4501,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4521,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4541,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4561,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4581,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4601,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4621,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4641,10 +4643,10 @@
         <v>3</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4661,10 +4663,10 @@
         <v>3</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4681,10 +4683,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4701,10 +4703,10 @@
         <v>3</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4721,10 +4723,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4741,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4761,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4781,10 +4783,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4801,10 +4803,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4821,10 +4823,10 @@
         <v>3</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4841,10 +4843,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4861,10 +4863,10 @@
         <v>3</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4881,10 +4883,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4901,10 +4903,10 @@
         <v>3</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4921,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4941,10 +4943,10 @@
         <v>3</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4961,10 +4963,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4981,10 +4983,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5001,10 +5003,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5021,10 +5023,10 @@
         <v>3</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5041,10 +5043,10 @@
         <v>4</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5061,10 +5063,10 @@
         <v>4</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5081,10 +5083,10 @@
         <v>4</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5101,10 +5103,10 @@
         <v>4</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5121,10 +5123,10 @@
         <v>4</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5141,10 +5143,10 @@
         <v>4</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5161,10 +5163,10 @@
         <v>4</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5181,10 +5183,10 @@
         <v>4</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5201,10 +5203,10 @@
         <v>4</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5221,10 +5223,10 @@
         <v>4</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5241,10 +5243,10 @@
         <v>4</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5261,10 +5263,10 @@
         <v>4</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5281,10 +5283,10 @@
         <v>4</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5301,10 +5303,10 @@
         <v>4</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5321,10 +5323,10 @@
         <v>4</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5341,10 +5343,10 @@
         <v>4</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5361,10 +5363,10 @@
         <v>4</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5381,10 +5383,10 @@
         <v>4</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5401,10 +5403,10 @@
         <v>4</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5421,10 +5423,10 @@
         <v>4</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5441,10 +5443,10 @@
         <v>5</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5461,10 +5463,10 @@
         <v>5</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5481,10 +5483,10 @@
         <v>5</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5501,10 +5503,10 @@
         <v>5</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5521,10 +5523,10 @@
         <v>5</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5541,10 +5543,10 @@
         <v>5</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5561,10 +5563,10 @@
         <v>5</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5581,10 +5583,10 @@
         <v>5</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5601,10 +5603,10 @@
         <v>5</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5621,10 +5623,10 @@
         <v>5</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5641,10 +5643,10 @@
         <v>5</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5661,10 +5663,10 @@
         <v>5</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5681,10 +5683,10 @@
         <v>5</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5701,10 +5703,10 @@
         <v>5</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5721,10 +5723,10 @@
         <v>5</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5741,10 +5743,10 @@
         <v>5</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5761,10 +5763,10 @@
         <v>5</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5781,10 +5783,10 @@
         <v>5</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5801,10 +5803,10 @@
         <v>5</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5821,10 +5823,10 @@
         <v>5</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
